--- a/Preliminary_classes/results_caching/results.xlsx
+++ b/Preliminary_classes/results_caching/results.xlsx
@@ -32,6 +32,13 @@
     <font>
       <name val="Calibri"/>
       <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -39,7 +46,31 @@
     <font>
       <name val="Calibri"/>
       <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -49,22 +80,6 @@
       <b val="1"/>
       <color rgb="FFFFFFFF"/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -92,14 +107,6 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
@@ -117,6 +124,20 @@
     <font>
       <name val="Calibri"/>
       <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <b val="1"/>
       <color rgb="FF3F3F3F"/>
       <sz val="11"/>
@@ -125,20 +146,6 @@
     <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <b val="1"/>
       <color rgb="FFFA7D00"/>
       <sz val="11"/>
@@ -147,13 +154,6 @@
     <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
@@ -162,14 +162,14 @@
     <font>
       <name val="Calibri"/>
       <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -183,187 +183,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,6 +426,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -440,17 +455,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -463,23 +474,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -497,130 +497,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1014,13 +1014,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+      <selection activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="5"/>
   <cols>
     <col width="22.1818181818182" customWidth="1" style="1" min="1" max="1"/>
   </cols>
@@ -1040,11 +1040,33 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>09/11/2022 08:15:55</t>
+          <t>09/11/2022 09:11:29</t>
         </is>
       </c>
       <c r="B2" s="0" t="n">
-        <v>1</v>
+        <v>0.46625</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>09/11/2022 09:16:00</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>0.47875</v>
       </c>
     </row>
   </sheetData>
@@ -1058,13 +1080,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+      <selection activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="4"/>
   <cols>
     <col width="24.5454545454545" customWidth="1" style="1" min="1" max="1"/>
   </cols>
@@ -1082,13 +1104,32 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>09/11/2022 08:15:55</t>
+          <t>09/11/2022 09:11:31</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>1</v>
+      <c r="B2" s="0" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>09/11/2022 09:16:03</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>0.475</v>
       </c>
     </row>
   </sheetData>
@@ -1102,13 +1143,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1"/>
   <cols>
     <col width="21.3636363636364" customWidth="1" style="1" min="1" max="1"/>
   </cols>
@@ -1125,6 +1166,26 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>09/11/2022 09:11:50</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>0.48625</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>09/11/2022 09:16:21</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.4825</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Preliminary_classes/results_caching/results.xlsx
+++ b/Preliminary_classes/results_caching/results.xlsx
@@ -1014,7 +1014,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="$A2:$XFD2"/>
@@ -1069,6 +1069,56 @@
         <v>0.47875</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>09/11/2022 09:28:43</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>0.545</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>09/11/2022 09:32:53</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>0.545</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>09/11/2022 09:33:17</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>0.545</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>09/11/2022 09:35:40</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>0.545</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>09/11/2022 09:37:12</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>0.545</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1080,7 +1130,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="$A2:$XFD2"/>
@@ -1132,6 +1182,46 @@
         <v>0.475</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>09/11/2022 09:28:46</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>0.475</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>09/11/2022 09:33:20</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>0.58125</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>09/11/2022 09:35:43</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>0.585</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>09/11/2022 09:37:15</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>0.585</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1143,7 +1233,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="$A1:$XFD1"/>
@@ -1177,13 +1267,43 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="0" t="inlineStr">
         <is>
           <t>09/11/2022 09:16:21</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="0" t="n">
         <v>0.4825</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>09/11/2022 09:33:39</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0.4825</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>09/11/2022 09:36:03</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0.4825</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>09/11/2022 09:37:35</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.59</v>
       </c>
     </row>
   </sheetData>

--- a/Preliminary_classes/results_caching/results.xlsx
+++ b/Preliminary_classes/results_caching/results.xlsx
@@ -1,255 +1,182 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14630" windowHeight="6950" activeTab="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="14630" windowHeight="6950" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="NaiveBayes" sheetId="1" r:id="rId1"/>
-    <sheet name="LogisticRegression" sheetId="2" r:id="rId2"/>
-    <sheet name="SVM" sheetId="3" r:id="rId3"/>
+    <sheet name="NaiveBayes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="LogisticRegression" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="SVM" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
-  <si>
-    <t>DateTime of eval. run</t>
-  </si>
-  <si>
-    <t>Accuracy</t>
-  </si>
-  <si>
-    <t>09/11/2022 09:11:29</t>
-  </si>
-  <si>
-    <t>09/11/2022 09:16:00</t>
-  </si>
-  <si>
-    <t>09/11/2022 09:28:43</t>
-  </si>
-  <si>
-    <t>09/11/2022 09:32:53</t>
-  </si>
-  <si>
-    <t>09/11/2022 09:33:17</t>
-  </si>
-  <si>
-    <t>09/11/2022 09:35:40</t>
-  </si>
-  <si>
-    <t>09/11/2022 09:37:12</t>
-  </si>
-  <si>
-    <t>09/11/2022 09:11:31</t>
-  </si>
-  <si>
-    <t>09/11/2022 09:16:03</t>
-  </si>
-  <si>
-    <t>09/11/2022 09:28:46</t>
-  </si>
-  <si>
-    <t>09/11/2022 09:33:20</t>
-  </si>
-  <si>
-    <t>09/11/2022 09:35:43</t>
-  </si>
-  <si>
-    <t>09/11/2022 09:37:15</t>
-  </si>
-  <si>
-    <t>0.60875</t>
-  </si>
-  <si>
-    <t>09/11/2022 09:11:50</t>
-  </si>
-  <si>
-    <t>09/11/2022 09:16:21</t>
-  </si>
-  <si>
-    <t>09/11/2022 09:33:39</t>
-  </si>
-  <si>
-    <t>09/11/2022 09:36:03</t>
-  </si>
-  <si>
-    <t>09/11/2022 09:37:35</t>
-  </si>
-  <si>
-    <t>0.61125</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
       <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -549,159 +476,159 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -755,11 +682,74 @@
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1019,300 +1009,418 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="22.1818181818182" style="1" customWidth="1"/>
+    <col width="22.1818181818182" customWidth="1" style="1" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>DateTime of eval. run</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>09/11/2022 09:11:29</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="n">
         <v>0.46625</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3"/>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4"/>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5"/>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6"/>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7">
+    <row r="3">
+      <c r="A3" s="0" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>09/11/2022 09:16:00</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="n">
         <v>0.47875</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8">
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>09/11/2022 09:28:43</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="n">
         <v>0.545</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9">
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>09/11/2022 09:32:53</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="n">
         <v>0.545</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10">
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>09/11/2022 09:33:17</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="n">
         <v>0.545</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11">
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>09/11/2022 09:35:40</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="n">
         <v>0.545</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12">
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>09/11/2022 09:37:12</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="n">
         <v>0.545</v>
       </c>
     </row>
-    <row r="13" spans="2:2">
-      <c r="B13">
+    <row r="13">
+      <c r="B13" s="0" t="n">
         <v>0.555</v>
       </c>
     </row>
-    <row r="14" spans="2:2">
-      <c r="B14">
-        <v>0.565</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2">
-      <c r="B15">
+    <row r="14">
+      <c r="B14" s="0" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="0" t="n">
         <v>0.5725</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>06/12/2022 07:58:49</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>0.545</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>06/12/2022 08:30:33</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>0.545</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="24.5454545454545" style="1" customWidth="1"/>
+    <col width="24.5454545454545" customWidth="1" style="1" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2">
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>DateTime of eval. run</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>09/11/2022 09:11:31</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="n">
         <v>0.51</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3"/>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4"/>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
+    <row r="3">
+      <c r="A3" s="0" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>09/11/2022 09:16:03</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="n">
         <v>0.475</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7">
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>09/11/2022 09:28:46</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="n">
         <v>0.475</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8">
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>09/11/2022 09:33:20</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="n">
         <v>0.58125</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9">
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>09/11/2022 09:35:43</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="n">
         <v>0.585</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10">
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>09/11/2022 09:37:15</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="n">
         <v>0.585</v>
       </c>
     </row>
-    <row r="11" spans="2:2">
-      <c r="B11">
+    <row r="11">
+      <c r="B11" s="0" t="n">
         <v>0.59</v>
       </c>
     </row>
-    <row r="12" spans="2:2">
-      <c r="B12">
+    <row r="12">
+      <c r="B12" s="0" t="n">
         <v>0.59875</v>
       </c>
     </row>
-    <row r="13" spans="2:2">
-      <c r="B13" t="s">
-        <v>15</v>
+    <row r="13">
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>0.60875</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>06/12/2022 07:58:54</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>0.585</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>06/12/2022 08:30:39</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>0.585</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="21.3636363636364" style="1" customWidth="1"/>
+    <col width="21.3636363636364" customWidth="1" style="1" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2">
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>DateTime of eval. run</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>09/11/2022 09:11:50</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="n">
         <v>0.48625</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3">
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>09/11/2022 09:16:21</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="n">
         <v>0.4825</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4">
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>09/11/2022 09:33:39</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="n">
         <v>0.4825</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5">
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>09/11/2022 09:36:03</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="n">
         <v>0.4825</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6">
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>09/11/2022 09:37:35</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="n">
         <v>0.59</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
-      <c r="B7">
+    <row r="7">
+      <c r="B7" s="0" t="n">
         <v>0.5925</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
-      <c r="B8">
+    <row r="8">
+      <c r="B8" s="0" t="n">
         <v>0.597</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
-      <c r="B9">
+    <row r="9">
+      <c r="B9" s="0" t="n">
         <v>0.61</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
-      <c r="B10" t="s">
-        <v>21</v>
+    <row r="10">
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>0.61125</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>06/12/2022 07:59:22</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>06/12/2022 08:31:07</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.59</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Preliminary_classes/results_caching/results.xlsx
+++ b/Preliminary_classes/results_caching/results.xlsx
@@ -1,276 +1,182 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14630" windowHeight="6950"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="14630" windowHeight="6950" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="NaiveBayes" sheetId="1" r:id="rId1"/>
-    <sheet name="LogisticRegression" sheetId="2" r:id="rId2"/>
-    <sheet name="SVM" sheetId="3" r:id="rId3"/>
+    <sheet name="NaiveBayes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="LogisticRegression" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="SVM" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
-  <si>
-    <t>DateTime of eval. run</t>
-  </si>
-  <si>
-    <t>Accuracy</t>
-  </si>
-  <si>
-    <t>09/11/2022 09:11:29</t>
-  </si>
-  <si>
-    <t>09/11/2022 09:16:00</t>
-  </si>
-  <si>
-    <t>09/11/2022 09:28:43</t>
-  </si>
-  <si>
-    <t>09/11/2022 09:32:53</t>
-  </si>
-  <si>
-    <t>09/11/2022 09:33:17</t>
-  </si>
-  <si>
-    <t>09/11/2022 09:35:40</t>
-  </si>
-  <si>
-    <t>09/11/2022 09:37:12</t>
-  </si>
-  <si>
-    <t>16/11/2022 08:30:33</t>
-  </si>
-  <si>
-    <t>06/12/2022 08:30:33</t>
-  </si>
-  <si>
-    <t>07/12/2022 08:38:16</t>
-  </si>
-  <si>
-    <t>09/11/2022 09:11:31</t>
-  </si>
-  <si>
-    <t>09/11/2022 09:16:03</t>
-  </si>
-  <si>
-    <t>09/11/2022 09:28:46</t>
-  </si>
-  <si>
-    <t>09/11/2022 09:33:20</t>
-  </si>
-  <si>
-    <t>09/11/2022 09:35:43</t>
-  </si>
-  <si>
-    <t>06/12/2022 07:58:54</t>
-  </si>
-  <si>
-    <t>06/12/2022 08:30:39</t>
-  </si>
-  <si>
-    <t>0.60875</t>
-  </si>
-  <si>
-    <t>07/12/2022 08:38:42</t>
-  </si>
-  <si>
-    <t>07/12/2022 08:41:03</t>
-  </si>
-  <si>
-    <t>09/11/2022 09:11:50</t>
-  </si>
-  <si>
-    <t>09/11/2022 09:16:21</t>
-  </si>
-  <si>
-    <t>09/11/2022 09:33:39</t>
-  </si>
-  <si>
-    <t>09/11/2022 09:36:03</t>
-  </si>
-  <si>
-    <t>09/11/2022 09:37:35</t>
-  </si>
-  <si>
-    <t>16/11/2022 07:59:22</t>
-  </si>
-  <si>
-    <t>07/12/2022 08:41:54</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -570,163 +476,163 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -782,11 +688,74 @@
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1046,323 +1015,455 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="22.1818181818182" style="1" customWidth="1"/>
+    <col width="22.1818181818182" customWidth="1" style="1" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>DateTime of eval. run</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>09/11/2022 09:11:29</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="n">
         <v>0.46625</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>09/11/2022 09:16:00</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="n">
         <v>0.47875</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>09/11/2022 09:28:43</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="n">
         <v>0.545</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>09/11/2022 09:32:53</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="n">
         <v>0.545</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>09/11/2022 09:33:17</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="n">
         <v>0.545</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>09/11/2022 09:35:40</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="n">
         <v>0.545</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>09/11/2022 09:37:12</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="n">
         <v>0.545</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>16/11/2022 08:30:33</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="n">
         <v>0.555</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>0.565</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>06/12/2022 08:30:33</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>07/12/2022 08:38:16</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="n">
         <v>0.5725</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16"/>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19"/>
+    <row r="16">
+      <c r="A16" s="0" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>13/12/2022 23:25:55</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>0.5725</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>13/12/2022 23:32:09</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>0.5725</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="24.5454545454545" style="1" customWidth="1"/>
+    <col width="24.5454545454545" customWidth="1" style="1" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2">
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>DateTime of eval. run</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>09/11/2022 09:11:31</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="n">
         <v>0.51</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3">
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>09/11/2022 09:16:03</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="n">
         <v>0.475</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4">
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>09/11/2022 09:28:46</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="n">
         <v>0.475</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5">
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>09/11/2022 09:33:20</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="n">
         <v>0.58125</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6">
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>09/11/2022 09:35:43</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="n">
         <v>0.585</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="3">
-        <v>44906.4008680556</v>
-      </c>
-      <c r="B7">
+    <row r="7">
+      <c r="A7" s="3" t="n">
+        <v>44906.40086805556</v>
+      </c>
+      <c r="B7" s="0" t="n">
         <v>0.59</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8">
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>06/12/2022 07:58:54</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="n">
         <v>0.59875</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10">
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>06/12/2022 08:30:39</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>0.60875</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>07/12/2022 08:38:42</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="n">
         <v>0.60875</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11">
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>07/12/2022 08:41:03</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>0.60875</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>13/12/2022 23:26:21</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>0.60875</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>13/12/2022 23:33:17</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="n">
         <v>0.60875</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="21.3636363636364" style="1" customWidth="1"/>
+    <col width="21.3636363636364" customWidth="1" style="1" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2">
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>DateTime of eval. run</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>09/11/2022 09:11:50</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="n">
         <v>0.48625</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3">
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>09/11/2022 09:16:21</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="n">
         <v>0.4825</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4">
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>09/11/2022 09:33:39</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="n">
         <v>0.4825</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5">
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>09/11/2022 09:36:03</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="n">
         <v>0.4825</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6">
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>09/11/2022 09:37:35</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="n">
         <v>0.59</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="2">
-        <v>44906.3549421296</v>
-      </c>
-      <c r="B7">
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>44906.35494212963</v>
+      </c>
+      <c r="B7" s="0" t="n">
         <v>0.5925</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8">
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>16/11/2022 07:59:22</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="n">
         <v>0.597</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="3">
-        <v>44724.3624305556</v>
-      </c>
-      <c r="B9">
+    <row r="9">
+      <c r="A9" s="3" t="n">
+        <v>44724.36243055556</v>
+      </c>
+      <c r="B9" s="0" t="n">
         <v>0.61</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10">
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>07/12/2022 08:41:54</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>0.61125</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>13/12/2022 23:27:12</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>0.61125</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>13/12/2022 23:36:02</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
         <v>0.61125</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Preliminary_classes/results_caching/results.xlsx
+++ b/Preliminary_classes/results_caching/results.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="14630" windowHeight="6950" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="14630" windowHeight="6950" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="NaiveBayes" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="LogisticRegression" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="SVM" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="QA" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -32,6 +33,59 @@
     <font>
       <name val="Calibri"/>
       <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <b val="1"/>
       <color rgb="FFFFFFFF"/>
       <sz val="11"/>
@@ -40,14 +94,7 @@
     <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -62,59 +109,6 @@
     <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <i val="1"/>
       <color rgb="FF7F7F7F"/>
       <sz val="11"/>
@@ -132,15 +126,14 @@
       <name val="Calibri"/>
       <charset val="0"/>
       <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -154,7 +147,7 @@
     <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -162,7 +155,7 @@
       <name val="Calibri"/>
       <charset val="0"/>
       <b val="1"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -173,6 +166,14 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -183,103 +184,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -291,79 +358,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,30 +375,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -420,7 +397,31 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -440,6 +441,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -454,32 +475,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -497,134 +498,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -634,6 +635,9 @@
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1022,7 +1026,7 @@
   </sheetPr>
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
@@ -1180,10 +1184,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B11"/>
+      <selection activeCell="A14" sqref="$A14:$XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -1316,11 +1320,21 @@
     <row r="13">
       <c r="A13" s="0" t="inlineStr">
         <is>
-          <t>13/12/2022 23:33:17</t>
+          <t>13/12/2022 23:33:16</t>
         </is>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.60875</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n">
+        <v>45078.5508912037</v>
+      </c>
+      <c r="B14" s="4" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -1334,10 +1348,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -1454,13 +1468,72 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="0" t="inlineStr">
         <is>
           <t>13/12/2022 23:36:02</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" s="0" t="n">
         <v>0.61125</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="n">
+        <v>45078.5508912037</v>
+      </c>
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t>0.61375</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>10/01/2023 18:48:26</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>0.1693214911967516</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>10/01/2023 19:25:16</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>0.3670555875154969</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>10/01/2023 19:43:27</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.4414828478497689</v>
       </c>
     </row>
   </sheetData>
